--- a/backend/output_timetables/sem7_ECE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem7_ECE_pre_mid_timetable.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Timetable" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Verification" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="LTPSC_Compliance" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Executive_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Course_Summary" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -769,7 +772,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -816,7 +819,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -894,6 +897,1820 @@
       <c r="I4" t="inlineStr">
         <is>
           <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Required LTPSC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Required (L/T/P)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Section A (L/T/P)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Section B (L/T/P)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Labs Status</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Compliance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Branch: ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Generation Date</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-12-13 16:20</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Timetable generation timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Course Statistics</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Total Courses</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Core: 0, Elective: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LTPSC Compliance</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Compliance Rate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0/2 courses fully compliant</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Room Utilization</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rooms Used</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0/35</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Utilization: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Schedule Density</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Time Slot Utilization</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>8.6%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A: 17.1%, B: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Quality Assessment</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Overall Quality</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[WARN] NEEDS REVIEW</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Score: 26.6/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Practicals/Week</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Half Semester</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Inclusion Reasoning</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Cybersecurity techniques</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Reinforcement learning</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Dibyajyothi</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CS367</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Image processing and computer vision</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>health care data analytics</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Girish G N</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Generative AI</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Chinmayananda A</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Hands on CMOS analog and RF circuit design</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Usability testing</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Quantum AI + Quantum Gen AI: Generative models on quantum platform</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Aswath Babu</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>DevOPS and its application</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Shirshendu Layek</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Agentic AI</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Sunil Saumya</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Information retrieval</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Krishnendu</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Cloud SRE and security</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Malay Kumar</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CS474</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Software defined network</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Jagadeesha R Bhat</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>AI for cybersecurity</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Finance and accounting</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Anushree</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Operation research</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Energy efficient neural networks</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Jagadish D N</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>EC498</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Mini Project</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0-0-0-8-2</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem7_ECE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem7_ECE_pre_mid_timetable.xlsx
@@ -9,9 +9,15 @@
   <sheets>
     <sheet name="Timetable" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Verification" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="LTPSC_Compliance" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Executive_Summary" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Course_Summary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Classroom_Allocation" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="LTPSC_Compliance" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Executive_Summary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Course_Summary" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Basket_Allocation" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Basket_Courses" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Classroom_Utilization" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Section_A" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Basket_Course_Allocations" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +503,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
     </row>
@@ -529,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
     </row>
@@ -593,7 +599,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
     </row>
@@ -605,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B8 (Tutorial)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -692,6 +698,553 @@
           <t>Free</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Allocated Rooms</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C002, C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C003, C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C004, L402</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C004, L403</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -704,7 +1257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -809,7 +1362,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B7**</t>
+          <t>**ELECTIVE_B8**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -856,45 +1409,139 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>**ELECTIVE_B7**</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>**ELECTIVE_B9**</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>**SUMMARY**</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Total Courses: 2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Total Courses: 4</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Complete: 0</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Rate: 0.0%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Lectures: 4</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Lectures: 7</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Labs: 0</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>[WARN] 2 issues</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[WARN] 4 issues</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -911,7 +1558,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -922,171 +1569,4036 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>Semester</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Branch</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Required LTPSC</t>
+          <t>Section</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Required (L/T/P)</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Section A (L/T/P)</t>
+          <t>Time Slot</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Section B (L/T/P)</t>
+          <t>Room Type</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Lectures Status</t>
+          <t>Capacity</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Tutorials Status</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Labs Status</t>
+          <t>Conflict</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Overall Compliance</t>
+          <t>Allocation Type</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Notes</t>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>ELECTIVE_B6</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3/0/0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2/1/0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0/0/0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>[WARN] PARTIAL</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Check scheduling</t>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>DS456</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3/0/0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2/1/0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0/0/0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>[WARN] PARTIAL</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Check scheduling</t>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>7</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>7</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>7</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>7</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>7</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>7</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>7</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>7</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>7</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>7</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>7</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>7</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>7</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>7</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>7</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>7</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>7</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>7</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>7</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>7</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>7</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>7</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>7</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>7</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>7</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>7</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>7</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>7</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>7</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>7</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>7</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>7</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>7</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>7</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>7</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>7</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>7</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>7</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>7</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>CS473</t>
         </is>
       </c>
     </row>
@@ -1096,6 +5608,310 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Required LTPSC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Required (L/T/P)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Section A (L/T/P)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Section B (L/T/P)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Labs Status</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Compliance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1/0/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1164,7 +5980,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-12-13 16:20</t>
+          <t>2026-01-18 11:33</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1185,11 +6001,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Core: 0, Elective: 2</t>
+          <t>Core: 0, Elective: 4</t>
         </is>
       </c>
     </row>
@@ -1211,7 +6027,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0/2 courses fully compliant</t>
+          <t>0/4 courses fully compliant</t>
         </is>
       </c>
     </row>
@@ -1228,7 +6044,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0/35</t>
+          <t>0/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1250,12 +6066,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8.6%</t>
+          <t>14.3%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 17.1%, B: 0.0%</t>
+          <t>A: 28.6%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -1277,7 +6093,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 26.6/100</t>
+          <t>Score: 28.3/100</t>
         </is>
       </c>
     </row>
@@ -1286,13 +6102,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1406,10 +6222,8 @@
           <t>Cybersecurity techniques</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F2" t="n">
+        <v>4</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1480,10 +6294,8 @@
           <t>Reinforcement learning</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F3" t="n">
+        <v>4</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1546,18 +6358,16 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CS367</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Image processing and computer vision</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>health care data analytics</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1575,7 +6385,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Vivekraj</t>
+          <t>Girish G N</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -1620,18 +6430,16 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>health care data analytics</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>Generative AI</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1649,7 +6457,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Girish G N</t>
+          <t>Chinmayananda A</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1694,18 +6502,16 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Generative AI</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>Hands on CMOS analog and RF circuit design</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1723,7 +6529,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Chinmayananda A</t>
+          <t>Rajesh Kumar</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1768,18 +6574,16 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hands on CMOS analog and RF circuit design</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>Usability testing</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1797,7 +6601,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Rajesh Kumar</t>
+          <t>Sandesh Phalke</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1842,18 +6646,16 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Usability testing</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>Quantum AI + Quantum Gen AI: Generative models on quantum platform</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>4</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1871,7 +6673,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Sandesh Phalke</t>
+          <t>Aswath Babu</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1916,18 +6718,16 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Quantum AI + Quantum Gen AI: Generative models on quantum platform</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>DevOPS and its application</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1945,7 +6745,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Aswath Babu</t>
+          <t>Shirshendu Layek</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1990,18 +6790,16 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>DevOPS and its application</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>Agentic AI</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -2019,7 +6817,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Shirshendu Layek</t>
+          <t>Sunil Saumya</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -2064,18 +6862,16 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Agentic AI</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>Information retrieval</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -2093,7 +6889,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Sunil Saumya</t>
+          <t>Krishnendu</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -2138,18 +6934,16 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Information retrieval</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>Cloud SRE and security</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -2167,7 +6961,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Krishnendu</t>
+          <t>Malay Kumar</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -2212,18 +7006,16 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Cloud SRE and security</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>AI for cybersecurity</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -2241,7 +7033,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Malay Kumar</t>
+          <t>Abdul Wahid</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -2286,18 +7078,16 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CS474</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Software defined network</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>Finance and accounting</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -2315,7 +7105,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Jagadeesha R Bhat</t>
+          <t>Anushree</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -2360,18 +7150,16 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>AI for cybersecurity</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>Operation research</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -2389,7 +7177,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Abdul Wahid</t>
+          <t>Anand B</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -2434,18 +7222,16 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Finance and accounting</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>Energy efficient neural networks</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>4</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -2463,7 +7249,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Anushree</t>
+          <t>Jagadish D N</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -2508,209 +7294,2182 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>EC498</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Mini Project</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0-0-0-8-2</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Number of Courses</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Branches</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DS456, EC456, DS401</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Semester 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CS457, DS458, CS468, CS473</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Semester 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>EC462, EC465, ASD352, PH454, DE451</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Semester 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CS470, DS102, MA452, EC463</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Semester 7</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slots</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Mon 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Mon 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Mon 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Mon 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Mon 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>MA452</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Operation research</t>
-        </is>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Anand B</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers, Books</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Examination room</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tables, Chairs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7</v>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>EC463</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Energy efficient neural networks</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Jagadish D N</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Equipment</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7</v>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>EC498</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Mini Project</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0-0-0-8-2</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Pankaj Kumar</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Physics Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C306</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C307</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C308</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>L401</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem7_ECE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem7_ECE_pre_mid_timetable.xlsx
@@ -1074,7 +1074,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C002, C004</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C003, C004</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004, L402</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004, L403</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2914,7 +2914,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2951,2652 +2951,6 @@
         </is>
       </c>
       <c r="M22" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>7</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>7</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>7</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>7</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>7</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>7</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>7</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>7</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>7</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>7</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>7</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>7</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>7</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>7</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>7</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>7</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>7</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>7</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>7</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>7</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>7</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>7</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>7</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>7</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>7</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>7</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>7</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>7</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>7</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>7</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>7</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>7</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>7</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>7</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>7</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>7</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>7</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>7</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>7</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>7</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>7</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>7</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
         <is>
           <t>CS473</t>
         </is>

--- a/backend/output_timetables/sem7_ECE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem7_ECE_pre_mid_timetable.xlsx
@@ -9,13 +9,13 @@
   <sheets>
     <sheet name="Timetable" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Verification" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Classroom_Allocation" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="LTPSC_Compliance" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Executive_Summary" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Course_Summary" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Basket_Allocation" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Basket_Courses" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Classroom_Utilization" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="LTPSC_Compliance" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Executive_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Course_Summary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Basket_Allocation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Basket_Courses" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Classroom_Utilization" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Classroom_Allocation" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Section_A" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Basket_Course_Allocations" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,17 +478,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -503,24 +503,24 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -542,118 +542,118 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7 (Tutorial)</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B8 (Tutorial)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B6 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B7 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -670,30 +670,94 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -710,7 +774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,17 +817,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -778,24 +842,24 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -817,118 +881,118 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7 (Tutorial)</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B8 (Tutorial)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B6 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B7 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -945,30 +1009,94 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -1023,7 +1151,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1168,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1202,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C002, C003</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1219,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C101</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1236,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C004, C101</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1253,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C003, C004</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1268,11 @@
           <t>EC462</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C001, C003, C004, C101</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1153,7 +1285,11 @@
           <t>EC465</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C002, C003, C101, C102</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1163,10 +1299,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C001, C004, C101, C102</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1179,7 +1319,11 @@
           <t>PH454</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C001, C003, C004, C101</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1189,10 +1333,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DE451</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>C002, C003, C102</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1205,7 +1353,11 @@
           <t>CS470</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>C003, C004, L406</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1218,7 +1370,11 @@
           <t>DS102</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>C001, C002, C003, L407</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1231,7 +1387,11 @@
           <t>MA452</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>C001, C002, C004</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1244,7 +1404,11 @@
           <t>EC463</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>C001, C003, C004</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1558,1415 +1722,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Semester</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Branch</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Section</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Day</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Room Type</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Capacity</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Conflict</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Allocation Type</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Basket</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>room</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>course</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>7</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>7</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>7</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>7</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>7</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>7</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>7</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>7</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>7</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>7</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>7</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>7</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>7</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>7</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3265,7 +2020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3334,7 +2089,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-18 11:33</t>
+          <t>2026-01-19 12:24</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3398,7 +2153,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0/36</t>
+          <t>0/16</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3420,12 +2175,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>11.1%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 28.6%, B: 0.0%</t>
+          <t>A: 22.2%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -3447,7 +2202,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 28.3/100</t>
+          <t>Score: 27.3/100</t>
         </is>
       </c>
     </row>
@@ -3456,7 +2211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4709,7 +3464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4883,11 +3638,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EC462, EC465, ASD352, PH454, DE451</t>
+          <t>EC462, EC465, DE451, PH454</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -4955,13 +3710,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5273,7 +4028,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -5308,7 +4063,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -5329,7 +4084,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -5343,7 +4098,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -5378,7 +4133,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -5394,26 +4149,26 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
+          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mon 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -5434,7 +4189,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -5469,7 +4224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -5504,7 +4259,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -5526,41 +4281,6 @@
         </is>
       </c>
       <c r="G16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>EC463</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Tue 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>4</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -5571,7 +4291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6830,4 +5550,4599 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Conflict</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>7</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>7</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>7</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>7</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>7</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>7</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>7</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>7</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>7</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>7</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>7</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>7</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>7</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>7</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>7</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>7</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>7</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>7</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>7</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>7</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>7</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>7</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>7</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>7</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>7</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>7</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>7</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>7</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>7</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>7</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>7</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>7</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>7</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>7</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>7</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>7</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>7</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>7</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>7</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>7</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>7</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>7</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>7</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/backend/output_timetables/sem7_ECE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem7_ECE_pre_mid_timetable.xlsx
@@ -1151,7 +1151,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C001, C002, C003</t>
+          <t>C004, C101</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C001, C101</t>
+          <t>C003, C004</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C002, C003</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C002, C003, C004</t>
+          <t>C001, C002</t>
         </is>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001, C003, C004, C101</t>
+          <t>C004, L403, L408</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C002, C003, C101, C102</t>
+          <t>C003, C004, L406</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C001, C004, C101, C102</t>
+          <t>C001, C002, C004, C101</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C001, C003, C004, C101</t>
+          <t>C001, C002, C003</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C002, C003, C102</t>
+          <t>C002, C003, C101</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C003, C004, L406</t>
+          <t>C004, C303, L404</t>
         </is>
       </c>
     </row>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C001, C002, C003, L407</t>
+          <t>C001, C003, C004, C304</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C001, C002, C004</t>
+          <t>C002, C003, C305, L405</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C001, C003, C004</t>
+          <t>C001, C002, C003, L407</t>
         </is>
       </c>
     </row>
@@ -5672,11 +5672,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="b">
         <v>0</v>
       </c>
@@ -5692,7 +5688,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -5732,15 +5728,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
@@ -5756,7 +5756,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -5796,17 +5796,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I4" t="b">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -5864,17 +5864,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -5932,17 +5932,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -5960,7 +5960,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -6028,7 +6028,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -6076,7 +6076,11 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I8" t="b">
         <v>0</v>
       </c>
@@ -6092,7 +6096,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -6132,19 +6136,15 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="b">
         <v>0</v>
       </c>
@@ -6160,7 +6160,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -6200,17 +6200,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I10" t="b">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -6273,10 +6273,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I11" t="b">
         <v>0</v>
       </c>
@@ -6292,7 +6296,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -6332,12 +6336,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -6360,7 +6364,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -6400,19 +6404,15 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="b">
         <v>0</v>
       </c>
@@ -6428,7 +6428,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -6476,11 +6476,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="b">
         <v>0</v>
       </c>
@@ -6496,7 +6492,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -6536,15 +6532,19 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I15" t="b">
         <v>0</v>
       </c>
@@ -6560,7 +6560,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -6600,17 +6600,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I16" t="b">
@@ -6628,7 +6628,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -6668,17 +6668,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I17" t="b">
@@ -6696,7 +6696,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -6736,17 +6736,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I18" t="b">
@@ -6764,7 +6764,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -6809,10 +6809,14 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I19" t="b">
         <v>0</v>
       </c>
@@ -6828,7 +6832,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -6873,7 +6877,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -6896,7 +6900,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -7280,11 +7284,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="b">
         <v>0</v>
       </c>
@@ -7300,7 +7300,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -7340,15 +7340,19 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I27" t="b">
         <v>0</v>
       </c>
@@ -7364,7 +7368,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -7404,17 +7408,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I28" t="b">
@@ -7432,7 +7436,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -7472,12 +7476,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -7500,7 +7504,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -7540,17 +7544,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I30" t="b">
@@ -7568,7 +7572,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -7608,17 +7612,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -7636,7 +7640,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -7744,15 +7748,19 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I33" t="b">
         <v>0</v>
       </c>
@@ -7768,7 +7776,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -7808,17 +7816,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -7836,7 +7844,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -7876,17 +7884,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -7904,7 +7912,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -7949,7 +7957,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -7972,7 +7980,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -8376,7 +8384,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -8416,19 +8424,15 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="b">
         <v>0</v>
       </c>
@@ -8444,7 +8448,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -8484,17 +8488,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -8512,7 +8516,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -8552,17 +8556,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -8580,7 +8584,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -8620,17 +8624,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -8648,7 +8652,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -8693,10 +8697,14 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I47" t="b">
         <v>0</v>
       </c>
@@ -8712,7 +8720,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -8820,19 +8828,15 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="b">
         <v>0</v>
       </c>
@@ -8848,7 +8852,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -8888,17 +8892,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -8916,7 +8920,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -8956,12 +8960,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -8984,7 +8988,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -9024,17 +9028,17 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I52" t="b">
@@ -9052,7 +9056,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -9097,14 +9101,10 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="b">
         <v>0</v>
       </c>
@@ -9120,7 +9120,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -9160,12 +9160,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -9228,15 +9228,19 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I55" t="b">
         <v>0</v>
       </c>
@@ -9252,7 +9256,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -9297,12 +9301,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I56" t="b">
@@ -9320,7 +9324,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -9360,17 +9364,17 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I57" t="b">
@@ -9388,7 +9392,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -9428,17 +9432,17 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I58" t="b">
@@ -9456,7 +9460,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -9501,7 +9505,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -9524,7 +9528,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -9564,17 +9568,17 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I60" t="b">
@@ -9592,7 +9596,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -9632,17 +9636,17 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I61" t="b">
@@ -9660,7 +9664,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -9700,15 +9704,19 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I62" t="b">
         <v>0</v>
       </c>
@@ -9724,7 +9732,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -9764,12 +9772,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -9792,7 +9800,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -9832,12 +9840,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -9860,7 +9868,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -9900,17 +9908,17 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I65" t="b">
@@ -9928,7 +9936,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -9968,17 +9976,17 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I66" t="b">
@@ -9996,7 +10004,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -10036,17 +10044,17 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I67" t="b">
@@ -10064,7 +10072,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -10109,10 +10117,14 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I68" t="b">
         <v>0</v>
       </c>
@@ -10128,7 +10140,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">

--- a/backend/output_timetables/sem7_ECE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem7_ECE_pre_mid_timetable.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -547,27 +547,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -643,27 +643,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>ELECTIVE_B8 (Tutorial)</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B9 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -680,17 +680,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -886,27 +886,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
         </is>
       </c>
     </row>
@@ -970,7 +970,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -982,27 +982,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>ELECTIVE_B8 (Tutorial)</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B9 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -1019,17 +1019,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C003, C004</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C002, C003</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C001, C002</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C004, L403, L408</t>
+          <t>C004, C101</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C003, C004, L406</t>
+          <t>C001, C202</t>
         </is>
       </c>
     </row>
@@ -1299,12 +1299,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C001, C002, C004, C101</t>
+          <t>C002, C203</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C001, C002, C003</t>
+          <t>C101, C204</t>
         </is>
       </c>
     </row>
@@ -1333,12 +1333,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C002, C003, C101</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C004, C303, L404</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C001, C003, C004, C304</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C002, C003, C305, L405</t>
+          <t>C002, C202</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C001, C002, C003, L407</t>
+          <t>C101, C203</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lectures: 7</t>
+          <t>Lectures: 8</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1/0/0</t>
+          <t>2/1/0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-19 12:24</t>
+          <t>2026-01-26 01:05</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0/16</t>
+          <t>0/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2175,12 +2175,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11.1%</t>
+          <t>13.3%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 22.2%, B: 0.0%</t>
+          <t>A: 26.7%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 27.3/100</t>
+          <t>Score: 28.0/100</t>
         </is>
       </c>
     </row>
@@ -3623,26 +3623,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EC462, EC465, DE451, PH454</t>
+          <t>EC462, EC465, ASD352, PH454, DE451</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -3668,17 +3668,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Fri</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Tue</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -3716,7 +3716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4019,16 +4019,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mon 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -4054,16 +4054,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mon 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -4084,21 +4084,21 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mon 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mon 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -4149,26 +4149,26 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -4189,17 +4189,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
+          <t>Tue 15:30-17:00, Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -4224,17 +4224,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
+          <t>Tue 15:30-17:00, Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -4259,17 +4259,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
+          <t>Tue 15:30-17:00, Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -4281,6 +4281,41 @@
         </is>
       </c>
       <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Tue 15:30-17:00, Thu 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -5558,7 +5593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5594,47 +5629,57 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Room Type</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Capacity</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Facilities</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Conflict</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Allocation Type</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Basket</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>room</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>course</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>session_type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>conflict</t>
         </is>
       </c>
     </row>
@@ -5664,42 +5709,54 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>ELECTIVE_B6</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>DS456</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -5728,46 +5785,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>ELECTIVE_B6</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>EC456</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -5796,46 +5861,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>ELECTIVE_B6</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>DS401</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5864,46 +5937,54 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>EC462</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -5932,46 +6013,54 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M6" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>EC465</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -6000,46 +6089,54 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M7" t="inlineStr">
         <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>ASD352</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -6068,46 +6165,54 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M8" t="inlineStr">
         <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>PH454</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -6136,42 +6241,54 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M9" t="inlineStr">
         <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>DE451</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -6200,46 +6317,54 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M10" t="inlineStr">
         <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>CS457</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -6268,46 +6393,54 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M11" t="inlineStr">
         <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>DS458</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -6336,46 +6469,54 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M12" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>CS468</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -6404,42 +6545,54 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M13" t="inlineStr">
         <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>CS473</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -6468,42 +6621,54 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>ELECTIVE_B6</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M14" t="inlineStr">
         <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>DS456</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -6532,46 +6697,54 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>ELECTIVE_B6</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M15" t="inlineStr">
         <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
           <t>EC456</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -6600,46 +6773,54 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>ELECTIVE_B6</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M16" t="inlineStr">
         <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
           <t>DS401</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -6668,46 +6849,54 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
       <c r="M17" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>CS470</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -6736,46 +6925,50 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M18" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
           <t>DS102</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -6804,46 +6997,54 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M19" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
           <t>MA452</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -6872,46 +7073,54 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M20" t="inlineStr">
         <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
           <t>EC463</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -6940,46 +7149,54 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M21" t="inlineStr">
         <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>EC462</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -7008,46 +7225,54 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M22" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
           <t>EC465</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -7076,46 +7301,54 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M23" t="inlineStr">
         <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
           <t>ASD352</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -7144,42 +7377,54 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M24" t="inlineStr">
         <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
           <t>PH454</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -7208,46 +7453,54 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M25" t="inlineStr">
         <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
           <t>DE451</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -7276,42 +7529,54 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>ELECTIVE_B6</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M26" t="inlineStr">
         <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
           <t>DS456</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -7340,46 +7605,54 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>ELECTIVE_B6</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M27" t="inlineStr">
         <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
           <t>EC456</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -7408,46 +7681,54 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>ELECTIVE_B6</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M28" t="inlineStr">
         <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
           <t>DS401</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -7476,46 +7757,54 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M29" t="inlineStr">
         <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
           <t>CS457</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -7544,46 +7833,54 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M30" t="inlineStr">
         <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
           <t>DS458</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -7612,46 +7909,54 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M31" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
           <t>CS468</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -7680,46 +7985,54 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M32" t="inlineStr">
         <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
           <t>CS473</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -7748,46 +8061,54 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M33" t="inlineStr">
         <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
           <t>CS457</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -7816,46 +8137,54 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M34" t="inlineStr">
         <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
           <t>DS458</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -7884,46 +8213,54 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M35" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
           <t>CS468</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -7952,46 +8289,54 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M36" t="inlineStr">
         <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
           <t>CS473</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -8020,46 +8365,54 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Auditorium</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>240</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>Audio/Video System</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>C004</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="N37" t="inlineStr">
         <is>
           <t>EC462</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -8088,46 +8441,50 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M38" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
           <t>EC465</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="O38" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -8156,46 +8513,54 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>C002</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
+      <c r="N39" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="O39" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -8224,42 +8589,54 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M40" t="inlineStr">
         <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
           <t>PH454</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="O40" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -8288,46 +8665,54 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M41" t="inlineStr">
         <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
           <t>DE451</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="O41" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -8356,46 +8741,54 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
       <c r="M42" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
           <t>CS470</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="O42" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -8424,42 +8817,50 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>C001</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="N43" t="inlineStr">
         <is>
           <t>DS102</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="O43" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -8488,46 +8889,54 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
       <c r="M44" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
           <t>MA452</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="O44" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -8556,46 +8965,54 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="H45" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
       <c r="M45" t="inlineStr">
         <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
           <t>EC463</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="O45" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -8624,46 +9041,54 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Auditorium</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>240</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>Audio/Video System</t>
         </is>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>C004</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
+      <c r="N46" t="inlineStr">
         <is>
           <t>CS470</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="O46" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -8692,46 +9117,50 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M47" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
           <t>DS102</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -8760,46 +9189,54 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>C002</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="N48" t="inlineStr">
         <is>
           <t>MA452</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -8828,1330 +9265,54 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M49" t="inlineStr">
         <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
           <t>EC463</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>7</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>EC462</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>7</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>EC465</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>7</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>DE451</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>7</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>PH454</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>7</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>7</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>EC462</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>7</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>EC465</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>7</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>DE451</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>7</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>PH454</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>7</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>7</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>EC462</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>7</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>EC465</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>7</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>DE451</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>7</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>PH454</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>7</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>7</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>C303</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>CS470</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>7</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>C304</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>DS102</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>7</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>MA452</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>7</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>EC463</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
+      <c r="P49" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/backend/output_timetables/sem7_ECE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem7_ECE_pre_mid_timetable.xlsx
@@ -9,13 +9,13 @@
   <sheets>
     <sheet name="Timetable" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Verification" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="LTPSC_Compliance" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Executive_Summary" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Course_Summary" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Basket_Allocation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Basket_Courses" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Classroom_Utilization" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Classroom_Allocation" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Classroom_Allocation" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="LTPSC_Compliance" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Executive_Summary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Course_Summary" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Basket_Allocation" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Basket_Courses" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Classroom_Utilization" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Section_A" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Basket_Course_Allocations" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C001, C202</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C002, C203</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C101, C204</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C002, C202</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C101, C203</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -1722,6 +1722,3743 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:P49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Conflict</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>conflict</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>7</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>7</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>7</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>7</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>7</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>7</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>7</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>7</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>7</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>7</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>7</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>7</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>7</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>7</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>7</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>7</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>7</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>7</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>7</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>7</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>7</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>7</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>7</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>7</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2020,7 +5757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2089,7 +5826,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 01:05</t>
+          <t>2026-01-26 12:46</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2211,7 +5948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3464,7 +7201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3710,7 +7447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4326,7 +8063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5585,3737 +9322,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:P49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Semester</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Branch</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Section</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Day</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Course</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Room Type</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Capacity</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Conflict</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Allocation Type</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Basket</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>room</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>course</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>session_type</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>conflict</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>EC462</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>EC462</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>EC465</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>EC465</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>7</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>PH454</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>PH454</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>DE451</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>DE451</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>7</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>7</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>7</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>7</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>7</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>7</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>7</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>7</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>CS470</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="J17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>CS470</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>7</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>DS102</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>DS102</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>7</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>MA452</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J19" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>MA452</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>7</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>EC463</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>EC463</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>7</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>EC462</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J21" t="b">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>EC462</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>7</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>EC465</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J22" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>EC465</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>7</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J23" t="b">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>7</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>PH454</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J24" t="b">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>PH454</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>7</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>DE451</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>DE451</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>7</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J26" t="b">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>7</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>7</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J28" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>7</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J29" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>7</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>7</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J31" t="b">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>7</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J32" t="b">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>7</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J33" t="b">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>7</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J34" t="b">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>7</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J35" t="b">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>7</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J36" t="b">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>7</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>EC462</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="J37" t="b">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>EC462</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>7</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>EC465</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="b">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>EC465</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>7</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J39" t="b">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>7</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>PH454</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J40" t="b">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>PH454</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>7</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>DE451</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J41" t="b">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>DE451</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>7</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>CS470</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="J42" t="b">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>CS470</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>7</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>DS102</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="b">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>DS102</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>7</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>MA452</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J44" t="b">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>MA452</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>7</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>EC463</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J45" t="b">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>EC463</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>7</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>CS470</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="J46" t="b">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>CS470</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>7</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>DS102</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>DS102</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>7</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>MA452</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J48" t="b">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>MA452</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>7</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>EC463</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J49" t="b">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>EC463</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/backend/output_timetables/sem7_ECE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem7_ECE_pre_mid_timetable.xlsx
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101, C202</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -2071,15 +2071,19 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
@@ -2095,7 +2099,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -2171,7 +2175,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -2229,7 +2233,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -2247,7 +2251,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -2323,7 +2327,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -2381,7 +2385,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -2399,7 +2403,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -2475,7 +2479,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -2551,7 +2555,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -2627,7 +2631,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -2685,7 +2689,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -2703,7 +2707,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -3007,7 +3011,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -3083,7 +3087,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -3159,7 +3163,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -3217,7 +3221,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -3235,7 +3239,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -3283,15 +3287,19 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
@@ -3307,7 +3315,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -3383,7 +3391,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -3441,7 +3449,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -3459,7 +3467,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -3535,7 +3543,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -3593,7 +3601,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -3611,7 +3619,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -3915,7 +3923,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -3991,7 +3999,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -4067,7 +4075,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -4125,7 +4133,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -4143,7 +4151,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -4219,7 +4227,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -4295,7 +4303,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -4371,7 +4379,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -4429,7 +4437,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -4447,7 +4455,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -4495,15 +4503,19 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
@@ -4519,7 +4531,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -4595,7 +4607,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -4653,7 +4665,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -4671,7 +4683,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -4747,7 +4759,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -4805,7 +4817,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -4823,7 +4835,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -4899,7 +4911,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -4975,7 +4987,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -5051,7 +5063,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -5109,7 +5121,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -5127,7 +5139,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -5203,7 +5215,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -5279,7 +5291,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -5355,7 +5367,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -5413,7 +5425,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -5431,7 +5443,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -5826,7 +5838,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 12:46</t>
+          <t>2026-01-26 21:32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
